--- a/build/ensino/2022/08/segundo-semestre-de-2022/mes-9-dia-4-ava-matc65.xlsx
+++ b/build/ensino/2022/08/segundo-semestre-de-2022/mes-9-dia-4-ava-matc65.xlsx
@@ -470,7 +470,7 @@
         <v>4</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -502,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -694,7 +694,7 @@
         <v>4</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -726,7 +726,7 @@
         <v>2</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -758,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -822,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>3</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -886,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -918,7 +918,7 @@
         <v>3</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -950,7 +950,7 @@
         <v>2</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -982,7 +982,7 @@
         <v>3</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1046,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1078,7 +1078,7 @@
         <v>4</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1110,7 +1110,7 @@
         <v>4</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1142,7 +1142,7 @@
         <v>3</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1174,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1206,7 +1206,7 @@
         <v>5</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1238,7 +1238,7 @@
         <v>4</v>
       </c>
       <c r="J27">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1270,7 +1270,7 @@
         <v>4</v>
       </c>
       <c r="J28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1334,7 +1334,7 @@
         <v>3</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1398,7 +1398,7 @@
         <v>4</v>
       </c>
       <c r="J32">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -1462,7 +1462,7 @@
         <v>1</v>
       </c>
       <c r="J34">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="J36">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -1590,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="J38">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -1622,7 +1622,7 @@
         <v>3</v>
       </c>
       <c r="J39">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -1654,7 +1654,7 @@
         <v>2</v>
       </c>
       <c r="J40">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -1686,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="J41">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -1718,7 +1718,7 @@
         <v>3</v>
       </c>
       <c r="J42">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1750,7 +1750,7 @@
         <v>3</v>
       </c>
       <c r="J43">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1782,7 +1782,7 @@
         <v>3</v>
       </c>
       <c r="J44">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -1878,7 +1878,7 @@
         <v>2</v>
       </c>
       <c r="J47">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -1942,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="J49">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">

--- a/build/ensino/2022/08/segundo-semestre-de-2022/mes-9-dia-4-ava-matc65.xlsx
+++ b/build/ensino/2022/08/segundo-semestre-de-2022/mes-9-dia-4-ava-matc65.xlsx
@@ -446,16 +446,16 @@
         <v>220121411</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -464,13 +464,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -499,10 +499,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -531,10 +531,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -557,16 +557,16 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -606,7 +606,7 @@
         <v>220215074</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -627,10 +627,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -670,19 +670,19 @@
         <v>220215677</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -691,10 +691,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -720,13 +720,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -766,10 +766,10 @@
         <v>220216104</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -787,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -804,13 +804,13 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -833,13 +833,13 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -883,10 +883,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -929,13 +929,13 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -958,19 +958,19 @@
         <v>218118315</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -979,10 +979,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1040,13 +1040,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1086,10 +1086,10 @@
         <v>219118768</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1124,13 +1124,13 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1171,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1182,31 +1182,31 @@
         <v>221120311</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1214,16 +1214,16 @@
         <v>221117651</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1232,13 +1232,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1246,16 +1246,16 @@
         <v>219216014</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1267,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1310,16 +1310,16 @@
         <v>219216568</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1331,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1374,16 +1374,16 @@
         <v>222215880</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1459,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1601,28 +1601,28 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1636,10 +1636,10 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1694,16 +1694,16 @@
         <v>216219204</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1715,10 +1715,10 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1726,13 +1726,13 @@
         <v>220217146</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1744,13 +1744,13 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1761,13 +1761,13 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1854,10 +1854,10 @@
         <v>220217141</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1875,10 +1875,10 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1939,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
